--- a/angular/src/assets/sampleFiles/business/Import_Target_Setting.xlsx
+++ b/angular/src/assets/sampleFiles/business/Import_Target_Setting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namvv\Documents\GitHub\tmss-ssa-sales-web\angular\src\assets\sampleFiles\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S_member\Desktop\TMSS-SALE\angular\src\assets\sampleFiles\business\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Example" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>No.</t>
   </si>
@@ -44,7 +45,13 @@
     <t>IMPORT TARGET SETTING</t>
   </si>
   <si>
-    <t>SalePerson</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>ThaiPV</t>
+  </si>
+  <si>
+    <t>CuongPV</t>
   </si>
 </sst>
 </file>
@@ -435,7 +442,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,4 +491,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>